--- a/test-data/verfify2/용역자명단_기본3명.xlsx
+++ b/test-data/verfify2/용역자명단_기본3명.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\bill\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.123.146\doowon_home\project\my\nanumpay\test-data\verfify2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8566DD3A-4843-418C-8CC0-DD05238A7806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FC589C-329C-4B77-AAA9-2D91E666E90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33030" yWindow="2970" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-07 용역자명단" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -626,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
@@ -673,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -720,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
